--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268282.8950082693</v>
+        <v>265844.4219085222</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>282.4605077549094</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>313.0734949773382</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>112.3514341322547</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>212.6652167733024</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>256.2988392245882</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>302.9446243547902</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>84.09493809565257</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>77.84724700848633</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>93.52676208877415</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>316.7197341507574</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>5.417911179178534</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>7.785128219330843</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.831980181936</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>165.1436917124536</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>26.13627195706002</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856421</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>1.839588425940237</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>201.8785690024635</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.8605623338588</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,10 +2801,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1822.632236038045</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C2" t="n">
-        <v>1453.669719097633</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D2" t="n">
-        <v>1095.404020490883</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E2" t="n">
-        <v>779.1681669784198</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,7 +4337,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609172</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609172</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609172</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2972.837166339058</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>2599.371408077978</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y2" t="n">
-        <v>2209.232076102167</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4431,16 +4431,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199866</v>
@@ -4452,7 +4452,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.0549803959803</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959803</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1813.808250985206</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1592.041635554732</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1302.938768680375</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1048.254280474488</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>758.8371104375277</v>
+        <v>665.4108858860666</v>
       </c>
       <c r="X4" t="n">
-        <v>530.8475595395104</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y4" t="n">
-        <v>310.0549803959803</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.13013587303</v>
+        <v>1878.169188758594</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.167618932618</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276232</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380157</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792697</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522582</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y5" t="n">
-        <v>2158.017852261502</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>880.2242361621301</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="C7" t="n">
-        <v>711.2880532342232</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D7" t="n">
-        <v>711.2880532342232</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E7" t="n">
-        <v>563.3749596518301</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>416.4850121539197</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>248.7821755286386</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1758.830508009166</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1537.063892578692</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1247.961025704335</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621301</v>
+        <v>993.2765374984485</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621301</v>
+        <v>993.2765374984485</v>
       </c>
       <c r="X7" t="n">
-        <v>880.2242361621301</v>
+        <v>765.2869866004312</v>
       </c>
       <c r="Y7" t="n">
-        <v>880.2242361621301</v>
+        <v>544.4944074569011</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>481.584566587187</v>
+        <v>417.124661698547</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218345</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176919</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906804</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906804</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>2005.586939522201</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992583</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368017</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1127.044958489905</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W10" t="n">
-        <v>1127.044958489905</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="X10" t="n">
-        <v>1127.044958489905</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.044958489905</v>
+        <v>370.014486981638</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797186</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.581113480496</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>615.6449305525891</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402534</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578603</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2213.105570022104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1993.504105045045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1704.428878389243</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1704.428878389243</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1415.011708352282</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.022157454265</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>966.2295783107344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819173</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695815</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3896878871884</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>369.499740389278</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>202.303641104158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000569</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,58 +5741,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>940.366449144724</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>719.5738700011939</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6206,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6227,19 +6227,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6315,16 +6315,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>558.0193492433381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.052681478294</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038326</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797726</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>739.6678140735778</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,22 +6780,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6926,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
@@ -7181,13 +7181,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,16 +7254,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-3.84283301942238e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>57.26675306205095</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>68.85687509492357</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>131.405150836667</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788572</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462256</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>15.88259428919096</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H19" t="n">
-        <v>114.1584408891638</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856724</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>24.63391537253398</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012035</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>250.2980548978878</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>23.83108638657365</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.72409101823595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>983848.506013547</v>
+        <v>983848.5060135471</v>
       </c>
     </row>
     <row r="3">
@@ -26314,7 +26314,7 @@
         <v>335917.9865019033</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389279</v>
+        <v>369468.7964389277</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389278</v>
@@ -26323,37 +26323,37 @@
         <v>363215.9698605026</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="G2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="H2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="J2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="K2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="L2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="M2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="N2" t="n">
         <v>363215.9698605026</v>
       </c>
-      <c r="N2" t="n">
-        <v>363215.9698605025</v>
-      </c>
       <c r="O2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
     </row>
     <row r="3">
@@ -26372,34 +26372,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551168</v>
       </c>
       <c r="N3" t="n">
-        <v>1.670698566158535e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50848.90313554106</v>
+        <v>50848.90313554121</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820625</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820626</v>
+        <v>93403.78684820642</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26442,16 +26442,16 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1151609.602922624</v>
+        <v>-1151795.996311163</v>
       </c>
       <c r="C6" t="n">
-        <v>168131.0690293283</v>
+        <v>168131.0690293281</v>
       </c>
       <c r="D6" t="n">
-        <v>168131.0690293282</v>
+        <v>168131.0690293285</v>
       </c>
       <c r="E6" t="n">
-        <v>-77535.77384761427</v>
+        <v>-77570.51177305072</v>
       </c>
       <c r="F6" t="n">
-        <v>247876.6879597405</v>
+        <v>247841.9500343048</v>
       </c>
       <c r="G6" t="n">
-        <v>247876.6879597405</v>
+        <v>247841.9500343048</v>
       </c>
       <c r="H6" t="n">
-        <v>247876.6879597406</v>
+        <v>247841.9500343048</v>
       </c>
       <c r="I6" t="n">
-        <v>247876.6879597408</v>
+        <v>247841.9500343048</v>
       </c>
       <c r="J6" t="n">
-        <v>30345.48556246325</v>
+        <v>30310.74763702726</v>
       </c>
       <c r="K6" t="n">
-        <v>247876.6879597404</v>
+        <v>247841.9500343046</v>
       </c>
       <c r="L6" t="n">
-        <v>247876.6879597406</v>
+        <v>247841.9500343048</v>
       </c>
       <c r="M6" t="n">
-        <v>162821.6600242288</v>
+        <v>162786.9220987931</v>
       </c>
       <c r="N6" t="n">
-        <v>247876.6879597402</v>
+        <v>247841.9500343048</v>
       </c>
       <c r="O6" t="n">
-        <v>247876.6879597406</v>
+        <v>247841.9500343048</v>
       </c>
       <c r="P6" t="n">
-        <v>247876.6879597406</v>
+        <v>247841.9500343048</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,17 +26966,17 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>25.54563095404723</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>72.51281930295312</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>77.41759119918719</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>73.85778156328863</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>126.4350024388924</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>62.32826741621739</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>60.66007681866822</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>111.9217783229556</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>261.1562795319088</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>69.51820450529618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>174.4140690027588</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>244.3525151044972</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837917</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,25 +31844,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,10 +32549,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526271</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>632.587927456874</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33737,22 +33737,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>279.0775374915855</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33974,19 +33974,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197787</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004584</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,10 +36197,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295167</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>151.9123054782681</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>490.4538935348556</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753343</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
